--- a/medicine/Enfance/L'Île_du_Crâne/L'Île_du_Crâne.xlsx
+++ b/medicine/Enfance/L'Île_du_Crâne/L'Île_du_Crâne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_du_Cr%C3%A2ne</t>
+          <t>L'Île_du_Crâne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Île du Crâne (titre original : Groosham Grange) est un roman d'Anthony Horowitz, paru en 1988 en Angleterre et en 1991 en France. Il a remporté le Prix européen du roman pour enfant en 1993. C'est un roman fait d'humour noir dans une atmosphère lugubre et mystérieuse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_du_Cr%C3%A2ne</t>
+          <t>L'Île_du_Crâne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Eliot est un enfant qui va bientôt avoir 13 ans. Il vient d’être renvoyé du collège Beton. En apprenant la nouvelle, son père (qui est très violent envers sa femme) entre dans une colère noire, contraignant David à aller se réfugier dans sa chambre. Le lendemain matin, un courrier atterrit dans la boîte aux lettres, proposant à David d’intégrer une nouvelle école, bizarrement décrite comme l’établissement parfait aux yeux de M. Eliot. En effet, l’école Groosham Grange dispense notamment des cours d’astronomie, de cuisine, et n’accorde qu’un jour de vacances par an.
 David est alors envoyé dans ce nouveau collège où les parents n’ont le droit de pénétrer qu’à la demande des directeurs. Les parents des pensionnaires n’étant pas admis à Groosham Grange, David rejoint l’Île du Crâne en train. Dans le train il fait la connaissance de Jeffrey Joseph et de Jill Green qui sont dans la même situation que lui. Jill vient de fuguer de son ancien collège, et ses parents ont aussi reçu une lettre louant les mérites de l’école et la décrivant comme un collège chic pour jeunes filles. Jeffrey a été renvoyé, car il a été surpris en train de fumer derrière les vestiaires de cricket ; la lettre que ses parents ont reçue présente Groosham Grange comme le collège parfait pour leur fils, mais cette fois-ci il est présenté comme une sorte de camp d’entraînement militaire. Dans le train, un prêtre entre dans leur compartiment et quand les trois enfants lui disent qu’ils vont à Groosham Grange, l’homme fait une crise cardiaque. Sur le quai de la gare, Gregor, un bossu avec un seul œil, les attend pour les conduire au collège. Ils prennent un bateau pour rejoindre l’île. Le capitaine du bateau, M. Baindesang, les conduit à l’île à bord de son bateau. Sur l’île, David est reçu par M. Kilgraw et doit écrire son nom sur un livre où d’autres noms ont déjà été écrits. Malencontreusement, M. Kilgraw le blesse au pouce en lui donnant la plume, et il est contraint de signer avec son propre sang.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_du_Cr%C3%A2ne</t>
+          <t>L'Île_du_Crâne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>David Eliot : 12 ans, courageux et curieux, il est le 7e fils du 7e fils (fils de M. et Mme. Eliot), il est petit pour son âge, a des cheveux bruns, des yeux bleu-vert et des taches de rousseur.
 Edward et Eileen Eliot :
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_du_Cr%C3%A2ne</t>
+          <t>L'Île_du_Crâne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Suite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île du Crâne a une suite : Maudit Graal, publié en 1997, qui raconte la suite des aventures de David Eliot.
 </t>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27%C3%8Ele_du_Cr%C3%A2ne</t>
+          <t>L'Île_du_Crâne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Source d'inspiration de J.K. Rowling ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce roman présente des similitudes avec la célèbre saga Harry Potter, notamment le voyage en train et les professeurs de l'école de magie. J.K. Rowling a d'ailleurs reconnu apprécier les romans d'Anthony Horowitz.[réf. nécessaire]
 </t>
